--- a/Code/Results/Cases/Case_7_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>29.54423019870969</v>
       </c>
       <c r="C2">
-        <v>16.90680230781996</v>
+        <v>16.90680230782026</v>
       </c>
       <c r="D2">
-        <v>5.305252454228997</v>
+        <v>5.305252454228839</v>
       </c>
       <c r="E2">
-        <v>5.532182565928587</v>
+        <v>5.532182565928834</v>
       </c>
       <c r="F2">
-        <v>41.65789379347101</v>
+        <v>41.65789379347083</v>
       </c>
       <c r="G2">
-        <v>2.072464356262614</v>
+        <v>2.072464356262476</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.771058323601389</v>
+        <v>7.771058323601387</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.67690909496363</v>
+        <v>13.67690909496347</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>27.59397676590481</v>
       </c>
       <c r="C3">
-        <v>15.69332837251184</v>
+        <v>15.69332837251166</v>
       </c>
       <c r="D3">
-        <v>5.350356374268681</v>
+        <v>5.350356374268513</v>
       </c>
       <c r="E3">
-        <v>5.566136204442461</v>
+        <v>5.566136204442392</v>
       </c>
       <c r="F3">
-        <v>39.62154078720435</v>
+        <v>39.62154078720444</v>
       </c>
       <c r="G3">
-        <v>2.086363872075362</v>
+        <v>2.086363872075367</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.490450320082568</v>
+        <v>7.4904503200826</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.88750481879492</v>
+        <v>13.88750481879495</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.35656817480885</v>
+        <v>26.35656817480889</v>
       </c>
       <c r="C4">
-        <v>14.91356608605039</v>
+        <v>14.9135660860503</v>
       </c>
       <c r="D4">
-        <v>5.382494383512434</v>
+        <v>5.382494383512655</v>
       </c>
       <c r="E4">
-        <v>5.588557843137849</v>
+        <v>5.588557843137977</v>
       </c>
       <c r="F4">
-        <v>38.37377863542834</v>
+        <v>38.37377863542839</v>
       </c>
       <c r="G4">
-        <v>2.095044626910386</v>
+        <v>2.095044626910248</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.32036126253717</v>
+        <v>7.320361262537261</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.02176749881042</v>
+        <v>14.02176749881045</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.84236127027178</v>
+        <v>25.84236127027177</v>
       </c>
       <c r="C5">
-        <v>14.58686519783187</v>
+        <v>14.58686519783182</v>
       </c>
       <c r="D5">
-        <v>5.396620658379486</v>
+        <v>5.396620658379529</v>
       </c>
       <c r="E5">
-        <v>5.598082165157256</v>
+        <v>5.59808216515719</v>
       </c>
       <c r="F5">
-        <v>37.86623605756458</v>
+        <v>37.86623605756461</v>
       </c>
       <c r="G5">
-        <v>2.098623644081955</v>
+        <v>2.098623644081953</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.251642892753186</v>
+        <v>7.251642892753164</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.07768346510753</v>
+        <v>14.07768346510761</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.7563814766293</v>
+        <v>25.75638147662934</v>
       </c>
       <c r="C6">
-        <v>14.53207066608411</v>
+        <v>14.53207066608429</v>
       </c>
       <c r="D6">
-        <v>5.39902613925943</v>
+        <v>5.399026139259456</v>
       </c>
       <c r="E6">
-        <v>5.59968683856611</v>
+        <v>5.599686838566231</v>
       </c>
       <c r="F6">
-        <v>37.78202582844522</v>
+        <v>37.78202582844526</v>
       </c>
       <c r="G6">
-        <v>2.099220575566698</v>
+        <v>2.09922057556696</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.240269506070714</v>
+        <v>7.240269506070707</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.08703981229527</v>
+        <v>14.08703981229534</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.34967349162812</v>
+        <v>26.34967349162815</v>
       </c>
       <c r="C7">
-        <v>14.90919656381314</v>
+        <v>14.90919656381311</v>
       </c>
       <c r="D7">
-        <v>5.38268083439223</v>
+        <v>5.382680834392119</v>
       </c>
       <c r="E7">
-        <v>5.588684733581988</v>
+        <v>5.588684733581863</v>
       </c>
       <c r="F7">
-        <v>38.36692950656301</v>
+        <v>38.366929506563</v>
       </c>
       <c r="G7">
-        <v>2.095092720679916</v>
+        <v>2.095092720679921</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.319432036392111</v>
+        <v>7.31943203639214</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.02251678183836</v>
+        <v>14.02251678183831</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>28.88009180647881</v>
       </c>
       <c r="C8">
-        <v>16.49545650478513</v>
+        <v>16.49545650478517</v>
       </c>
       <c r="D8">
-        <v>5.319825838537697</v>
+        <v>5.319825838537611</v>
       </c>
       <c r="E8">
-        <v>5.543557642146914</v>
+        <v>5.543557642146972</v>
       </c>
       <c r="F8">
-        <v>40.95535838961518</v>
+        <v>40.95535838961506</v>
       </c>
       <c r="G8">
-        <v>2.077229522138845</v>
+        <v>2.077229522138712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.673867313642462</v>
+        <v>7.673867313642506</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.74846486746324</v>
+        <v>13.74846486746314</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>33.78548293101633</v>
       </c>
       <c r="C9">
-        <v>19.34200989857632</v>
+        <v>19.34200989857628</v>
       </c>
       <c r="D9">
-        <v>5.23638386271688</v>
+        <v>5.23638386271708</v>
       </c>
       <c r="E9">
-        <v>5.468002724700754</v>
+        <v>5.468002724700813</v>
       </c>
       <c r="F9">
-        <v>46.046395455631</v>
+        <v>46.04639545563106</v>
       </c>
       <c r="G9">
-        <v>2.043119720831491</v>
+        <v>2.043119720831622</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.385364907934802</v>
+        <v>8.385364907934797</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.25288272980984</v>
+        <v>13.25288272980994</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.20372134512404</v>
+        <v>37.20372134512392</v>
       </c>
       <c r="C10">
-        <v>21.29005324376422</v>
+        <v>21.29005324376427</v>
       </c>
       <c r="D10">
-        <v>5.206764796856594</v>
+        <v>5.206764796856554</v>
       </c>
       <c r="E10">
-        <v>5.421139923231925</v>
+        <v>5.421139923231919</v>
       </c>
       <c r="F10">
-        <v>49.80130551062118</v>
+        <v>49.80130551062106</v>
       </c>
       <c r="G10">
         <v>2.018230211120028</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.918050781413569</v>
+        <v>8.918050781413541</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.91887368627699</v>
+        <v>12.91887368627701</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>38.71499493389361</v>
       </c>
       <c r="C11">
-        <v>22.14985906830251</v>
+        <v>22.14985906830256</v>
       </c>
       <c r="D11">
-        <v>5.202184887534862</v>
+        <v>5.202184887534914</v>
       </c>
       <c r="E11">
-        <v>5.401916547233295</v>
+        <v>5.401916547233351</v>
       </c>
       <c r="F11">
-        <v>51.51773784084664</v>
+        <v>51.51773784084669</v>
       </c>
       <c r="G11">
-        <v>2.006838937525585</v>
+        <v>2.006838937525597</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.162982972836119</v>
+        <v>9.16298297283611</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.77490120517149</v>
+        <v>12.77490120517156</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.28170286094137</v>
+        <v>39.28170286094135</v>
       </c>
       <c r="C12">
         <v>22.47212359938337</v>
       </c>
       <c r="D12">
-        <v>5.201932279941311</v>
+        <v>5.201932279941427</v>
       </c>
       <c r="E12">
-        <v>5.394961545377089</v>
+        <v>5.394961545377031</v>
       </c>
       <c r="F12">
-        <v>52.16961949794945</v>
+        <v>52.16961949794954</v>
       </c>
       <c r="G12">
-        <v>2.002504788593166</v>
+        <v>2.002504788593037</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.256180881260624</v>
+        <v>9.25618088126061</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.72169113337752</v>
+        <v>12.72169113337751</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.15988751166932</v>
+        <v>39.1598875116693</v>
       </c>
       <c r="C13">
-        <v>22.40285776506834</v>
+        <v>22.40285776506836</v>
       </c>
       <c r="D13">
-        <v>5.20191719911125</v>
+        <v>5.201917199111224</v>
       </c>
       <c r="E13">
-        <v>5.3964445750697</v>
+        <v>5.396444575069689</v>
       </c>
       <c r="F13">
         <v>52.02912613566271</v>
       </c>
       <c r="G13">
-        <v>2.003439327222743</v>
+        <v>2.00343932722274</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.236087634097025</v>
+        <v>9.236087634097014</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.7330896077035</v>
+        <v>12.73308960770353</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.76172559118424</v>
+        <v>38.76172559118425</v>
       </c>
       <c r="C14">
-        <v>22.17643565073683</v>
+        <v>22.17643565073691</v>
       </c>
       <c r="D14">
-        <v>5.202133130340731</v>
+        <v>5.202133130340875</v>
       </c>
       <c r="E14">
-        <v>5.401337701395496</v>
+        <v>5.401337701395562</v>
       </c>
       <c r="F14">
-        <v>51.57132530661359</v>
+        <v>51.57132530661364</v>
       </c>
       <c r="G14">
-        <v>2.006482843295595</v>
+        <v>2.006482843295336</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.17064092088007</v>
+        <v>9.170640920880082</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.77049626188098</v>
+        <v>12.77049626188094</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.51713677089417</v>
+        <v>38.51713677089409</v>
       </c>
       <c r="C15">
-        <v>22.03732772074253</v>
+        <v>22.03732772074244</v>
       </c>
       <c r="D15">
-        <v>5.202464935314381</v>
+        <v>5.202464935314395</v>
       </c>
       <c r="E15">
-        <v>5.404377911820679</v>
+        <v>5.404377911820671</v>
       </c>
       <c r="F15">
-        <v>51.29118296674405</v>
+        <v>51.291182966744</v>
       </c>
       <c r="G15">
-        <v>2.008344065327272</v>
+        <v>2.008344065327405</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.130613896710624</v>
+        <v>9.130613896710649</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.79358494751668</v>
+        <v>12.79358494751675</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.10413387171892</v>
+        <v>37.10413387171914</v>
       </c>
       <c r="C16">
-        <v>21.23337043203634</v>
+        <v>21.23337043203645</v>
       </c>
       <c r="D16">
-        <v>5.20725967669188</v>
+        <v>5.207259676691739</v>
       </c>
       <c r="E16">
-        <v>5.422440248043256</v>
+        <v>5.422440248043314</v>
       </c>
       <c r="F16">
-        <v>49.68935464198672</v>
+        <v>49.6893546419868</v>
       </c>
       <c r="G16">
-        <v>2.018972405332835</v>
+        <v>2.0189724053327</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.902101824482857</v>
+        <v>8.902101824482855</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.92845604874772</v>
+        <v>12.92845604874763</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.22656908362698</v>
+        <v>36.22656908362703</v>
       </c>
       <c r="C17">
-        <v>20.73372328846736</v>
+        <v>20.73372328846743</v>
       </c>
       <c r="D17">
-        <v>5.21261341032289</v>
+        <v>5.212613410322773</v>
       </c>
       <c r="E17">
-        <v>5.434072518137175</v>
+        <v>5.434072518137186</v>
       </c>
       <c r="F17">
-        <v>48.70923745156126</v>
+        <v>48.70923745156132</v>
       </c>
       <c r="G17">
-        <v>2.025467907605549</v>
+        <v>2.025467907605687</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.762626759854356</v>
+        <v>8.762626759854381</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.01334035328505</v>
+        <v>13.01334035328498</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.7176539282047</v>
+        <v>35.71765392820464</v>
       </c>
       <c r="C18">
-        <v>20.44382547784307</v>
+        <v>20.44382547784324</v>
       </c>
       <c r="D18">
-        <v>5.216515973951387</v>
+        <v>5.216515973951374</v>
       </c>
       <c r="E18">
-        <v>5.440958618005909</v>
+        <v>5.440958618005847</v>
       </c>
       <c r="F18">
-        <v>48.14622429852756</v>
+        <v>48.14622429852744</v>
       </c>
       <c r="G18">
-        <v>2.029198195026261</v>
+        <v>2.029198195026529</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.682643976456228</v>
+        <v>8.682643976456204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.06290186604578</v>
+        <v>13.06290186604575</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.54460969991961</v>
+        <v>35.54460969991973</v>
       </c>
       <c r="C19">
-        <v>20.34522629586771</v>
+        <v>20.34522629586761</v>
       </c>
       <c r="D19">
-        <v>5.217973043776301</v>
+        <v>5.217973043776345</v>
       </c>
       <c r="E19">
-        <v>5.443323081715612</v>
+        <v>5.443323081715674</v>
       </c>
       <c r="F19">
-        <v>47.95570463580556</v>
+        <v>47.95570463580564</v>
       </c>
       <c r="G19">
         <v>2.030460512231457</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.6556026656597</v>
+        <v>8.655602665659726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.07980500713047</v>
+        <v>13.07980500713048</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.32041354628138</v>
+        <v>36.3204135462814</v>
       </c>
       <c r="C20">
-        <v>20.7871686337775</v>
+        <v>20.78716863377745</v>
       </c>
       <c r="D20">
-        <v>5.211956927649518</v>
+        <v>5.211956927649617</v>
       </c>
       <c r="E20">
-        <v>5.432813853554939</v>
+        <v>5.43281385355469</v>
       </c>
       <c r="F20">
-        <v>48.81349330777956</v>
+        <v>48.81349330777959</v>
       </c>
       <c r="G20">
-        <v>2.0247771168469</v>
+        <v>2.024777116846906</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.777448905917415</v>
+        <v>8.777448905917375</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.0042268062942</v>
+        <v>13.00422680629421</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>38.87882047035897</v>
       </c>
       <c r="C21">
-        <v>22.2430274447936</v>
+        <v>22.24302744479363</v>
       </c>
       <c r="D21">
-        <v>5.202027712530401</v>
+        <v>5.202027712530374</v>
       </c>
       <c r="E21">
-        <v>5.399891455710993</v>
+        <v>5.399891455710985</v>
       </c>
       <c r="F21">
-        <v>51.7057337755415</v>
+        <v>51.70573377554135</v>
       </c>
       <c r="G21">
-        <v>2.005589539775468</v>
+        <v>2.005589539775456</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.189851322156709</v>
+        <v>9.189851322156713</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.75947198586552</v>
+        <v>12.75947198586555</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.51880639746106</v>
+        <v>40.51880639746093</v>
       </c>
       <c r="C22">
-        <v>23.17541119807593</v>
+        <v>23.17541119807579</v>
       </c>
       <c r="D22">
-        <v>5.204294054375387</v>
+        <v>5.204294054375358</v>
       </c>
       <c r="E22">
-        <v>5.380280628267309</v>
+        <v>5.380280628267252</v>
       </c>
       <c r="F22">
-        <v>53.60762102973477</v>
+        <v>53.60762102973463</v>
       </c>
       <c r="G22">
-        <v>1.992923357174436</v>
+        <v>1.992923357174433</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.462046969944343</v>
+        <v>9.462046969944327</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.60724876386218</v>
+        <v>12.60724876386224</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.64617880989637</v>
+        <v>39.64617880989632</v>
       </c>
       <c r="C23">
-        <v>22.67935243685017</v>
+        <v>22.67935243685015</v>
       </c>
       <c r="D23">
-        <v>5.202207376824767</v>
+        <v>5.202207376824752</v>
       </c>
       <c r="E23">
-        <v>5.390563880565578</v>
+        <v>5.390563880565689</v>
       </c>
       <c r="F23">
         <v>52.59117563754725</v>
       </c>
       <c r="G23">
-        <v>1.999699089187563</v>
+        <v>1.999699089187566</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.316494070015926</v>
+        <v>9.316494070015894</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.68772000159936</v>
+        <v>12.68772000159944</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.27800019439865</v>
+        <v>36.27800019439875</v>
       </c>
       <c r="C24">
-        <v>20.76301426261212</v>
+        <v>20.76301426261228</v>
       </c>
       <c r="D24">
-        <v>5.212251169860173</v>
+        <v>5.212251169860229</v>
       </c>
       <c r="E24">
-        <v>5.43338227902754</v>
+        <v>5.433382279027554</v>
       </c>
       <c r="F24">
-        <v>48.76635782362354</v>
+        <v>48.76635782362363</v>
       </c>
       <c r="G24">
-        <v>2.025089435233841</v>
+        <v>2.025089435233709</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.770747185416253</v>
+        <v>8.770747185416248</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.00834468430995</v>
+        <v>13.00834468430986</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.48395851960905</v>
+        <v>32.48395851960911</v>
       </c>
       <c r="C25">
         <v>18.59853022779621</v>
       </c>
       <c r="D25">
-        <v>5.253996494145755</v>
+        <v>5.253996494145786</v>
       </c>
       <c r="E25">
-        <v>5.486987106032744</v>
+        <v>5.486987106032868</v>
       </c>
       <c r="F25">
-        <v>44.66761431794174</v>
+        <v>44.6676143179417</v>
       </c>
       <c r="G25">
-        <v>2.052285742551342</v>
+        <v>2.052285742551209</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.191204899897425</v>
+        <v>8.191204899897492</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.3820672903848</v>
+        <v>13.38206729038478</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.54423019870969</v>
+        <v>22.8832152182358</v>
       </c>
       <c r="C2">
-        <v>16.90680230782026</v>
+        <v>14.2699968084884</v>
       </c>
       <c r="D2">
-        <v>5.305252454228839</v>
+        <v>3.779744975135392</v>
       </c>
       <c r="E2">
-        <v>5.532182565928834</v>
+        <v>8.293381740231135</v>
       </c>
       <c r="F2">
-        <v>41.65789379347083</v>
+        <v>24.78961861939</v>
       </c>
       <c r="G2">
-        <v>2.072464356262476</v>
+        <v>34.95604949686526</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.114911937893313</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.92868173457769</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.54811095943409</v>
       </c>
       <c r="L2">
-        <v>7.771058323601387</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.67690909496347</v>
+        <v>8.446955446039336</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.80065453894909</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.59397676590481</v>
+        <v>21.33299574778955</v>
       </c>
       <c r="C3">
-        <v>15.69332837251166</v>
+        <v>13.42773745791015</v>
       </c>
       <c r="D3">
-        <v>5.350356374268513</v>
+        <v>3.754447538078642</v>
       </c>
       <c r="E3">
-        <v>5.566136204442392</v>
+        <v>8.084477673142031</v>
       </c>
       <c r="F3">
-        <v>39.62154078720444</v>
+        <v>23.77276873417432</v>
       </c>
       <c r="G3">
-        <v>2.086363872075367</v>
+        <v>33.32921167024181</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.84231681153978</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.7274919576476</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.34370645916456</v>
       </c>
       <c r="L3">
-        <v>7.4904503200826</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.88750481879495</v>
+        <v>8.095033843623051</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>11.97260408007547</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.35656817480889</v>
+        <v>20.32466813122508</v>
       </c>
       <c r="C4">
-        <v>14.9135660860503</v>
+        <v>12.88393940156612</v>
       </c>
       <c r="D4">
-        <v>5.382494383512655</v>
+        <v>3.738187527743135</v>
       </c>
       <c r="E4">
-        <v>5.588557843137977</v>
+        <v>7.952667659770989</v>
       </c>
       <c r="F4">
-        <v>38.37377863542839</v>
+        <v>23.1451969127131</v>
       </c>
       <c r="G4">
-        <v>2.095044626910248</v>
+        <v>32.31845538979892</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.669637666616465</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.60908001402684</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.22830715468045</v>
       </c>
       <c r="L4">
-        <v>7.320361262537261</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.02176749881045</v>
+        <v>7.871158547115041</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.08025103078539</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.84236127027177</v>
+        <v>19.89947594232027</v>
       </c>
       <c r="C5">
-        <v>14.58686519783182</v>
+        <v>12.65566749583634</v>
       </c>
       <c r="D5">
-        <v>5.396620658379529</v>
+        <v>3.731382934108973</v>
       </c>
       <c r="E5">
-        <v>5.59808216515719</v>
+        <v>7.898045841833561</v>
       </c>
       <c r="F5">
-        <v>37.86623605756461</v>
+        <v>22.88898422536329</v>
       </c>
       <c r="G5">
-        <v>2.098623644081953</v>
+        <v>31.90410888824896</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.597904124860036</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.562121971278</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.18376425121333</v>
       </c>
       <c r="L5">
-        <v>7.251642892753164</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.07768346510761</v>
+        <v>7.778035541761913</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.12465526916887</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.75638147662934</v>
+        <v>19.82800748836334</v>
       </c>
       <c r="C6">
-        <v>14.53207066608429</v>
+        <v>12.61736155882977</v>
       </c>
       <c r="D6">
-        <v>5.399026139259456</v>
+        <v>3.730242382687834</v>
       </c>
       <c r="E6">
-        <v>5.599686838566231</v>
+        <v>7.888920605442405</v>
       </c>
       <c r="F6">
-        <v>37.78202582844526</v>
+        <v>22.84642236118991</v>
       </c>
       <c r="G6">
-        <v>2.09922057556696</v>
+        <v>31.83517562184467</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.585909464457835</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.55440307477462</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.17651611734482</v>
       </c>
       <c r="L6">
-        <v>7.240269506070707</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.08703981229534</v>
+        <v>7.762460466110889</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.13206149058865</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.34967349162815</v>
+        <v>20.31899181624713</v>
       </c>
       <c r="C7">
-        <v>14.90919656381311</v>
+        <v>12.88088779797405</v>
       </c>
       <c r="D7">
-        <v>5.382680834392119</v>
+        <v>3.73809647562223</v>
       </c>
       <c r="E7">
-        <v>5.588684733581863</v>
+        <v>7.951934709700683</v>
       </c>
       <c r="F7">
-        <v>38.366929506563</v>
+        <v>23.14174297734406</v>
       </c>
       <c r="G7">
-        <v>2.095092720679921</v>
+        <v>32.31287655369218</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.668675812064016</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.60844146582314</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.22769645947128</v>
       </c>
       <c r="L7">
-        <v>7.31943203639214</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.02251678183831</v>
+        <v>7.869910220586462</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.08084768466285</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.88009180647881</v>
+        <v>22.36037074720013</v>
       </c>
       <c r="C8">
-        <v>16.49545650478517</v>
+        <v>13.98512928222742</v>
       </c>
       <c r="D8">
-        <v>5.319825838537611</v>
+        <v>3.77117599830357</v>
       </c>
       <c r="E8">
-        <v>5.543557642146972</v>
+        <v>8.222075593624927</v>
       </c>
       <c r="F8">
-        <v>40.95535838961506</v>
+        <v>24.43986891698428</v>
       </c>
       <c r="G8">
-        <v>2.077229522138712</v>
+        <v>34.39787437635718</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.022002677994783</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.85825483698161</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.47550156063234</v>
       </c>
       <c r="L8">
-        <v>7.673867313642506</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.74846486746314</v>
+        <v>8.327267837102848</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>11.85952364555734</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.78548293101633</v>
+        <v>25.91929748016561</v>
       </c>
       <c r="C9">
-        <v>19.34200989857628</v>
+        <v>15.93867219327265</v>
       </c>
       <c r="D9">
-        <v>5.23638386271708</v>
+        <v>3.830079167404027</v>
       </c>
       <c r="E9">
-        <v>5.468002724700813</v>
+        <v>8.724626992377797</v>
       </c>
       <c r="F9">
-        <v>46.04639545563106</v>
+        <v>26.94706205957861</v>
       </c>
       <c r="G9">
-        <v>2.043119720831622</v>
+        <v>38.3730071757247</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.67429256851445</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.38829735585549</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.04397986948285</v>
       </c>
       <c r="L9">
-        <v>8.385364907934797</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.25288272980994</v>
+        <v>9.159876675181549</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.44112606799782</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.20372134512392</v>
+        <v>28.19071433889573</v>
       </c>
       <c r="C10">
-        <v>21.29005324376427</v>
+        <v>17.28775077530318</v>
       </c>
       <c r="D10">
-        <v>5.206764796856554</v>
+        <v>3.884480771735191</v>
       </c>
       <c r="E10">
-        <v>5.421139923231919</v>
+        <v>8.997908721730738</v>
       </c>
       <c r="F10">
-        <v>49.80130551062106</v>
+        <v>28.59764630400331</v>
       </c>
       <c r="G10">
-        <v>2.018230211120028</v>
+        <v>40.93012714418916</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.115025147701509</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.74342219381266</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.39552006793864</v>
       </c>
       <c r="L10">
-        <v>8.918050781413541</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.91887368627701</v>
+        <v>9.593606158933957</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.15058146539131</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.71499493389361</v>
+        <v>28.50120286150452</v>
       </c>
       <c r="C11">
-        <v>22.14985906830256</v>
+        <v>18.2388722473026</v>
       </c>
       <c r="D11">
-        <v>5.202184887534914</v>
+        <v>4.054118171998206</v>
       </c>
       <c r="E11">
-        <v>5.401916547233351</v>
+        <v>8.621006875033467</v>
       </c>
       <c r="F11">
-        <v>51.51773784084669</v>
+        <v>28.01337809828753</v>
       </c>
       <c r="G11">
-        <v>2.006838937525597</v>
+        <v>39.71864261278582</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.766666294469787</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.40482997091415</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.53299885098241</v>
       </c>
       <c r="L11">
-        <v>9.16298297283611</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.77490120517156</v>
+        <v>8.637688869023217</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.11910349936929</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.28170286094135</v>
+        <v>28.2966665018856</v>
       </c>
       <c r="C12">
-        <v>22.47212359938337</v>
+        <v>18.77169479504209</v>
       </c>
       <c r="D12">
-        <v>5.201932279941427</v>
+        <v>4.205104977969887</v>
       </c>
       <c r="E12">
-        <v>5.394961545377031</v>
+        <v>8.534486771714839</v>
       </c>
       <c r="F12">
-        <v>52.16961949794954</v>
+        <v>27.15342818915912</v>
       </c>
       <c r="G12">
-        <v>2.002504788593037</v>
+        <v>38.12853352254702</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.797370342393839</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.0332685374513</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.71552597590757</v>
       </c>
       <c r="L12">
-        <v>9.25618088126061</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.72169113337751</v>
+        <v>7.777331238437585</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.1839524545867</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.1598875116693</v>
+        <v>27.6772089607903</v>
       </c>
       <c r="C13">
-        <v>22.40285776506836</v>
+        <v>19.03027230159221</v>
       </c>
       <c r="D13">
-        <v>5.201917199111224</v>
+        <v>4.347645610841738</v>
       </c>
       <c r="E13">
-        <v>5.396444575069689</v>
+        <v>8.665329783133396</v>
       </c>
       <c r="F13">
-        <v>52.02912613566271</v>
+        <v>26.00019367047216</v>
       </c>
       <c r="G13">
-        <v>2.00343932722274</v>
+        <v>36.09450695514425</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.960167131686271</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.6072547112492</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.87596680613658</v>
       </c>
       <c r="L13">
-        <v>9.236087634097014</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.73308960770353</v>
+        <v>6.93952567502384</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.31911999334786</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.76172559118425</v>
+        <v>27.04706016897046</v>
       </c>
       <c r="C14">
-        <v>22.17643565073691</v>
+        <v>19.09135573654054</v>
       </c>
       <c r="D14">
-        <v>5.202133130340875</v>
+        <v>4.444397112351947</v>
       </c>
       <c r="E14">
-        <v>5.401337701395562</v>
+        <v>8.885982290920909</v>
       </c>
       <c r="F14">
-        <v>51.57132530661364</v>
+        <v>25.04651571158952</v>
       </c>
       <c r="G14">
-        <v>2.006482843295336</v>
+        <v>34.44273786803343</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.824797865940573</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.28276880396543</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.28026626788221</v>
       </c>
       <c r="L14">
-        <v>9.170640920880082</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.77049626188094</v>
+        <v>6.381235381995459</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.44540171510464</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.51713677089409</v>
+        <v>26.80227055732241</v>
       </c>
       <c r="C15">
-        <v>22.03732772074244</v>
+        <v>19.04746848332502</v>
       </c>
       <c r="D15">
-        <v>5.202464935314395</v>
+        <v>4.463564245924271</v>
       </c>
       <c r="E15">
-        <v>5.404377911820671</v>
+        <v>8.944589952697456</v>
       </c>
       <c r="F15">
-        <v>51.291182966744</v>
+        <v>24.75124562344129</v>
       </c>
       <c r="G15">
-        <v>2.008344065327405</v>
+        <v>33.94342011062581</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.020640975827663</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.1934199068952</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.13336344456436</v>
       </c>
       <c r="L15">
-        <v>9.130613896710649</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.79358494751675</v>
+        <v>6.245753967012385</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.4861249764245</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.10413387171914</v>
+        <v>25.94862227065252</v>
       </c>
       <c r="C16">
-        <v>21.23337043203645</v>
+        <v>18.46370812495617</v>
       </c>
       <c r="D16">
-        <v>5.207259676691739</v>
+        <v>4.4081375755207</v>
       </c>
       <c r="E16">
-        <v>5.422440248043314</v>
+        <v>8.790060706168839</v>
       </c>
       <c r="F16">
-        <v>49.6893546419868</v>
+        <v>24.20895654892384</v>
       </c>
       <c r="G16">
-        <v>2.0189724053327</v>
+        <v>33.12401103563992</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.728821430259507</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.11326376257666</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.13834435109624</v>
       </c>
       <c r="L16">
-        <v>8.902101824482855</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.92845604874763</v>
+        <v>6.196126022367165</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.56446837401448</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.22656908362703</v>
+        <v>25.63293108367409</v>
       </c>
       <c r="C17">
-        <v>20.73372328846743</v>
+        <v>17.9713482157253</v>
       </c>
       <c r="D17">
-        <v>5.212613410322773</v>
+        <v>4.312780370863923</v>
       </c>
       <c r="E17">
-        <v>5.434072518137186</v>
+        <v>8.526826209999673</v>
       </c>
       <c r="F17">
-        <v>48.70923745156132</v>
+        <v>24.32176277175689</v>
       </c>
       <c r="G17">
-        <v>2.025467907605687</v>
+        <v>33.41567202390851</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.992685776956877</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.22887730556931</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.46179348574034</v>
       </c>
       <c r="L17">
-        <v>8.762626759854381</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.01334035328498</v>
+        <v>6.449676182881118</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.55975899718195</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.71765392820464</v>
+        <v>25.75795567125662</v>
       </c>
       <c r="C18">
-        <v>20.44382547784324</v>
+        <v>17.50971842212885</v>
       </c>
       <c r="D18">
-        <v>5.216515973951374</v>
+        <v>4.179582981985677</v>
       </c>
       <c r="E18">
-        <v>5.440958618005847</v>
+        <v>8.277421668592059</v>
       </c>
       <c r="F18">
-        <v>48.14622429852744</v>
+        <v>25.00504621077849</v>
       </c>
       <c r="G18">
-        <v>2.029198195026529</v>
+        <v>34.68884076170965</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.845390697495857</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.52158483260674</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.09306882746757</v>
       </c>
       <c r="L18">
-        <v>8.682643976456204</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.06290186604575</v>
+        <v>7.045490796733102</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.49536599659459</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.54460969991973</v>
+        <v>26.2262672994652</v>
       </c>
       <c r="C19">
-        <v>20.34522629586761</v>
+        <v>17.11562530042081</v>
       </c>
       <c r="D19">
-        <v>5.217973043776345</v>
+        <v>4.036827337381328</v>
       </c>
       <c r="E19">
-        <v>5.443323081715674</v>
+        <v>8.279148715535772</v>
       </c>
       <c r="F19">
-        <v>47.95570463580564</v>
+        <v>26.07851682313987</v>
       </c>
       <c r="G19">
-        <v>2.030460512231457</v>
+        <v>36.62468061754051</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.648678274882242</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.93094116568818</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.92805763910201</v>
       </c>
       <c r="L19">
-        <v>8.655602665659726</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.07980500713048</v>
+        <v>7.925384061690336</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.40393227502112</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.3204135462814</v>
+        <v>27.60761535518686</v>
       </c>
       <c r="C20">
-        <v>20.78716863377745</v>
+        <v>16.94443919238089</v>
       </c>
       <c r="D20">
-        <v>5.211956927649617</v>
+        <v>3.871019470472807</v>
       </c>
       <c r="E20">
-        <v>5.43281385355469</v>
+        <v>8.922851433492001</v>
       </c>
       <c r="F20">
-        <v>48.81349330777959</v>
+        <v>28.15938953552869</v>
       </c>
       <c r="G20">
-        <v>2.024777116846906</v>
+        <v>40.25099401218104</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.998900169155207</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.64588474057621</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.29406062379066</v>
       </c>
       <c r="L20">
-        <v>8.777448905917375</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.00422680629421</v>
+        <v>9.475603048382707</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.22644260484395</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.87882047035897</v>
+        <v>29.39026527054246</v>
       </c>
       <c r="C21">
-        <v>22.24302744479363</v>
+        <v>17.8732268300256</v>
       </c>
       <c r="D21">
-        <v>5.202027712530374</v>
+        <v>3.888279343962533</v>
       </c>
       <c r="E21">
-        <v>5.399891455710985</v>
+        <v>9.254111735289058</v>
       </c>
       <c r="F21">
-        <v>51.70573377554135</v>
+        <v>29.6501382849567</v>
       </c>
       <c r="G21">
-        <v>2.005589539775456</v>
+        <v>42.60701606234863</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.356530552220456</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.01586367912149</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.76637969390515</v>
       </c>
       <c r="L21">
-        <v>9.189851322156713</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.75947198586555</v>
+        <v>10.00678129698311</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>10.99293671002292</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.51880639746093</v>
+        <v>30.46835138751981</v>
       </c>
       <c r="C22">
-        <v>23.17541119807579</v>
+        <v>18.47941280025228</v>
       </c>
       <c r="D22">
-        <v>5.204294054375358</v>
+        <v>3.906367076191946</v>
       </c>
       <c r="E22">
-        <v>5.380280628267252</v>
+        <v>9.426673823311894</v>
       </c>
       <c r="F22">
-        <v>53.60762102973463</v>
+        <v>30.53566702853044</v>
       </c>
       <c r="G22">
-        <v>1.992923357174433</v>
+        <v>43.98582056451463</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.578020215621809</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.23203798019652</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.0243960037327</v>
       </c>
       <c r="L22">
-        <v>9.462046969944327</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.60724876386224</v>
+        <v>10.27566723066333</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>10.84562446974744</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.64617880989632</v>
+        <v>29.8971772661311</v>
       </c>
       <c r="C23">
-        <v>22.67935243685015</v>
+        <v>18.15794951511023</v>
       </c>
       <c r="D23">
-        <v>5.202207376824752</v>
+        <v>3.896787691026372</v>
       </c>
       <c r="E23">
-        <v>5.390563880565689</v>
+        <v>9.334764075314418</v>
       </c>
       <c r="F23">
-        <v>52.59117563754725</v>
+        <v>30.06393829016093</v>
       </c>
       <c r="G23">
-        <v>1.999699089187566</v>
+        <v>43.25174760671619</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.460097962722844</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.11628205232582</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.88572063434386</v>
       </c>
       <c r="L23">
-        <v>9.316494070015894</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.68772000159944</v>
+        <v>10.13289423311191</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>10.92415019330708</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.27800019439875</v>
+        <v>27.64062244402324</v>
       </c>
       <c r="C24">
-        <v>20.76301426261228</v>
+        <v>16.89470988144855</v>
       </c>
       <c r="D24">
-        <v>5.212251169860229</v>
+        <v>3.858904549668001</v>
       </c>
       <c r="E24">
-        <v>5.433382279027554</v>
+        <v>8.982283056623874</v>
       </c>
       <c r="F24">
-        <v>48.76635782362363</v>
+        <v>28.25825403639684</v>
       </c>
       <c r="G24">
-        <v>2.025089435233709</v>
+        <v>40.43214685133749</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.006815886361828</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.68625700078145</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.3815220485845</v>
       </c>
       <c r="L24">
-        <v>8.770747185416248</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.00834468430986</v>
+        <v>9.576069233356453</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.22383027368924</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.48395851960911</v>
+        <v>25.0034937808538</v>
       </c>
       <c r="C25">
-        <v>18.59853022779621</v>
+        <v>15.43286413352164</v>
       </c>
       <c r="D25">
-        <v>5.253996494145786</v>
+        <v>3.814810381450159</v>
       </c>
       <c r="E25">
-        <v>5.486987106032868</v>
+        <v>8.591444629436962</v>
       </c>
       <c r="F25">
-        <v>44.6676143179417</v>
+        <v>26.2745420332173</v>
       </c>
       <c r="G25">
-        <v>2.052285742551209</v>
+        <v>37.31217237095683</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.501953362688168</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.24067268622468</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.88103764765023</v>
       </c>
       <c r="L25">
-        <v>8.191204899897492</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.38206729038478</v>
+        <v>8.941810949366895</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.55275928719802</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.8832152182358</v>
+        <v>22.25334212529701</v>
       </c>
       <c r="C2">
-        <v>14.2699968084884</v>
+        <v>14.74300977248973</v>
       </c>
       <c r="D2">
-        <v>3.779744975135392</v>
+        <v>3.880051078262905</v>
       </c>
       <c r="E2">
-        <v>8.293381740231135</v>
+        <v>8.084815936629457</v>
       </c>
       <c r="F2">
-        <v>24.78961861939</v>
+        <v>23.68407475902367</v>
       </c>
       <c r="G2">
-        <v>34.95604949686526</v>
+        <v>32.45527410894228</v>
       </c>
       <c r="H2">
-        <v>2.114911937893313</v>
+        <v>2.086281612038339</v>
       </c>
       <c r="J2">
-        <v>10.92868173457769</v>
+        <v>11.06322502973011</v>
       </c>
       <c r="K2">
-        <v>16.54811095943409</v>
+        <v>15.62122647831771</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.65765960020028</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.679667114613389</v>
       </c>
       <c r="N2">
-        <v>8.446955446039336</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.80065453894909</v>
+        <v>8.497843216092644</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.822555265593</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.33299574778955</v>
+        <v>20.79071750062001</v>
       </c>
       <c r="C3">
-        <v>13.42773745791015</v>
+        <v>13.81344174969483</v>
       </c>
       <c r="D3">
-        <v>3.754447538078642</v>
+        <v>3.821019865588253</v>
       </c>
       <c r="E3">
-        <v>8.084477673142031</v>
+        <v>7.907937678787436</v>
       </c>
       <c r="F3">
-        <v>23.77276873417432</v>
+        <v>22.79215918212423</v>
       </c>
       <c r="G3">
-        <v>33.32921167024181</v>
+        <v>31.03847781777517</v>
       </c>
       <c r="H3">
-        <v>1.84231681153978</v>
+        <v>1.843337923564971</v>
       </c>
       <c r="J3">
-        <v>10.7274919576476</v>
+        <v>10.87474003911069</v>
       </c>
       <c r="K3">
-        <v>16.34370645916456</v>
+        <v>15.50680721648723</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.70935790930043</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.410292062506329</v>
       </c>
       <c r="N3">
-        <v>8.095033843623051</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.97260408007547</v>
+        <v>8.155740948880647</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.96009202625472</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.32466813122508</v>
+        <v>19.8384223702671</v>
       </c>
       <c r="C4">
-        <v>12.88393940156612</v>
+        <v>13.21217441992121</v>
       </c>
       <c r="D4">
-        <v>3.738187527743135</v>
+        <v>3.78379169097789</v>
       </c>
       <c r="E4">
-        <v>7.952667659770989</v>
+        <v>7.796254007802419</v>
       </c>
       <c r="F4">
-        <v>23.1451969127131</v>
+        <v>22.24102779746367</v>
       </c>
       <c r="G4">
-        <v>32.31845538979892</v>
+        <v>30.16173836161776</v>
       </c>
       <c r="H4">
-        <v>1.669637666616465</v>
+        <v>1.689253999562475</v>
       </c>
       <c r="J4">
-        <v>10.60908001402684</v>
+        <v>10.7602197028002</v>
       </c>
       <c r="K4">
-        <v>16.22830715468045</v>
+        <v>15.44429928049802</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.74158752172974</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.271976814172772</v>
       </c>
       <c r="N4">
-        <v>7.871158547115041</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.08025103078539</v>
+        <v>7.938399340220058</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.04711502483726</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89947594232027</v>
+        <v>19.43664322555273</v>
       </c>
       <c r="C5">
-        <v>12.65566749583634</v>
+        <v>12.95951354590787</v>
       </c>
       <c r="D5">
-        <v>3.731382934108973</v>
+        <v>3.768383759104894</v>
       </c>
       <c r="E5">
-        <v>7.898045841833561</v>
+        <v>7.749951383267916</v>
       </c>
       <c r="F5">
-        <v>22.88898422536329</v>
+        <v>22.01582419540948</v>
       </c>
       <c r="G5">
-        <v>31.90410888824896</v>
+        <v>29.80316689398989</v>
       </c>
       <c r="H5">
-        <v>1.597904124860036</v>
+        <v>1.62520288969578</v>
       </c>
       <c r="J5">
-        <v>10.562121971278</v>
+        <v>10.71387693746839</v>
       </c>
       <c r="K5">
-        <v>16.18376425121333</v>
+        <v>15.42070376890567</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.75483205147269</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.222638349808573</v>
       </c>
       <c r="N5">
-        <v>7.778035541761913</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.12465526916887</v>
+        <v>7.848074746854834</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.08322880707031</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82800748836334</v>
+        <v>19.36909787258998</v>
       </c>
       <c r="C6">
-        <v>12.61736155882977</v>
+        <v>12.91709932748179</v>
       </c>
       <c r="D6">
-        <v>3.730242382687834</v>
+        <v>3.76581125937413</v>
       </c>
       <c r="E6">
-        <v>7.888920605442405</v>
+        <v>7.742214667584382</v>
       </c>
       <c r="F6">
-        <v>22.84642236118991</v>
+        <v>21.97840049694564</v>
       </c>
       <c r="G6">
-        <v>31.83517562184467</v>
+        <v>29.74356159302045</v>
       </c>
       <c r="H6">
-        <v>1.585909464457835</v>
+        <v>1.614490409808919</v>
       </c>
       <c r="J6">
-        <v>10.55440307477462</v>
+        <v>10.70620200514718</v>
       </c>
       <c r="K6">
-        <v>16.17651611734482</v>
+        <v>15.41689700944068</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.75703765290194</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.214875081952879</v>
       </c>
       <c r="N6">
-        <v>7.762460466110889</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.13206149058865</v>
+        <v>7.832972814600733</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.08926492123529</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.31899181624713</v>
+        <v>19.82364573601117</v>
       </c>
       <c r="C7">
-        <v>12.88088779797405</v>
+        <v>13.19505668060586</v>
       </c>
       <c r="D7">
-        <v>3.73809647562223</v>
+        <v>3.785685934789865</v>
       </c>
       <c r="E7">
-        <v>7.951934709700683</v>
+        <v>7.796354394221049</v>
       </c>
       <c r="F7">
-        <v>23.14174297734406</v>
+        <v>22.21386894384217</v>
       </c>
       <c r="G7">
-        <v>32.31287655369218</v>
+        <v>30.24431668232536</v>
       </c>
       <c r="H7">
-        <v>1.668675812064016</v>
+        <v>1.687598011461679</v>
       </c>
       <c r="J7">
-        <v>10.60844146582314</v>
+        <v>10.70244597432888</v>
       </c>
       <c r="K7">
-        <v>16.22769645947128</v>
+        <v>15.43258124903817</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.73250602558314</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.263089981915558</v>
       </c>
       <c r="N7">
-        <v>7.869910220586462</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.08084768466285</v>
+        <v>7.935831893278024</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.04827053684252</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.36037074720013</v>
+        <v>21.7314330331151</v>
       </c>
       <c r="C8">
-        <v>13.98512928222742</v>
+        <v>14.38639568844775</v>
       </c>
       <c r="D8">
-        <v>3.77117599830357</v>
+        <v>3.867073772629623</v>
       </c>
       <c r="E8">
-        <v>8.222075593624927</v>
+        <v>8.026911501475107</v>
       </c>
       <c r="F8">
-        <v>24.43986891698428</v>
+        <v>23.30098667821808</v>
       </c>
       <c r="G8">
-        <v>34.39787437635718</v>
+        <v>32.24373096211905</v>
       </c>
       <c r="H8">
-        <v>2.022002677994783</v>
+        <v>2.001031459567608</v>
       </c>
       <c r="J8">
-        <v>10.85825483698161</v>
+        <v>10.81285588735049</v>
       </c>
       <c r="K8">
-        <v>16.47550156063234</v>
+        <v>15.54291147652561</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.64667979647934</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.552627412537856</v>
       </c>
       <c r="N8">
-        <v>8.327267837102848</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.85952364555734</v>
+        <v>8.3771903365796</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.87220999121782</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.91929748016561</v>
+        <v>25.08002716194174</v>
       </c>
       <c r="C9">
-        <v>15.93867219327265</v>
+        <v>16.53056007624358</v>
       </c>
       <c r="D9">
-        <v>3.830079167404027</v>
+        <v>4.01070060222339</v>
       </c>
       <c r="E9">
-        <v>8.724626992377797</v>
+        <v>8.452678331274589</v>
       </c>
       <c r="F9">
-        <v>26.94706205957861</v>
+        <v>25.48432422340719</v>
       </c>
       <c r="G9">
-        <v>38.3730071757247</v>
+        <v>35.76969383248693</v>
       </c>
       <c r="H9">
-        <v>2.67429256851445</v>
+        <v>2.580726933966494</v>
       </c>
       <c r="J9">
-        <v>11.38829735585549</v>
+        <v>11.24683470871917</v>
       </c>
       <c r="K9">
-        <v>17.04397986948285</v>
+        <v>15.86561895185225</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.51659774213826</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.35408242103923</v>
       </c>
       <c r="N9">
-        <v>9.159876675181549</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.44112606799782</v>
+        <v>9.187013422867764</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.54488968232945</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.19071433889573</v>
+        <v>27.17432401142594</v>
       </c>
       <c r="C10">
-        <v>17.28775077530318</v>
+        <v>17.9315912311932</v>
       </c>
       <c r="D10">
-        <v>3.884480771735191</v>
+        <v>4.140176072849179</v>
       </c>
       <c r="E10">
-        <v>8.997908721730738</v>
+        <v>8.683716184836536</v>
       </c>
       <c r="F10">
-        <v>28.59764630400331</v>
+        <v>26.80090112496734</v>
       </c>
       <c r="G10">
-        <v>40.93012714418916</v>
+        <v>38.46651055939882</v>
       </c>
       <c r="H10">
-        <v>3.115025147701509</v>
+        <v>2.967261270249707</v>
       </c>
       <c r="J10">
-        <v>11.74342219381266</v>
+        <v>11.21972557326742</v>
       </c>
       <c r="K10">
-        <v>17.39552006793864</v>
+        <v>15.98359863353223</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.31189489034897</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.91286605049247</v>
       </c>
       <c r="N10">
-        <v>9.593606158933957</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.15058146539131</v>
+        <v>9.598468604632904</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.33662879286405</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.50120286150452</v>
+        <v>27.41688362967179</v>
       </c>
       <c r="C11">
-        <v>18.2388722473026</v>
+        <v>18.73198504242134</v>
       </c>
       <c r="D11">
-        <v>4.054118171998206</v>
+        <v>4.378780145770265</v>
       </c>
       <c r="E11">
-        <v>8.621006875033467</v>
+        <v>8.357021090758124</v>
       </c>
       <c r="F11">
-        <v>28.01337809828753</v>
+        <v>26.01636476174336</v>
       </c>
       <c r="G11">
-        <v>39.71864261278582</v>
+        <v>38.27328329761006</v>
       </c>
       <c r="H11">
-        <v>3.766666294469787</v>
+        <v>3.628754216585631</v>
       </c>
       <c r="J11">
-        <v>11.40482997091415</v>
+        <v>10.29061988546972</v>
       </c>
       <c r="K11">
-        <v>16.53299885098241</v>
+        <v>15.07448916468124</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.56365309871806</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.36540792551107</v>
       </c>
       <c r="N11">
-        <v>8.637688869023217</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.11910349936929</v>
+        <v>8.614304210979776</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.39597038776189</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.2966665018856</v>
+        <v>27.2169666032377</v>
       </c>
       <c r="C12">
-        <v>18.77169479504209</v>
+        <v>19.16232368017562</v>
       </c>
       <c r="D12">
-        <v>4.205104977969887</v>
+        <v>4.561529648570544</v>
       </c>
       <c r="E12">
-        <v>8.534486771714839</v>
+        <v>8.314021562548573</v>
       </c>
       <c r="F12">
-        <v>27.15342818915912</v>
+        <v>25.12992245090355</v>
       </c>
       <c r="G12">
-        <v>38.12853352254702</v>
+        <v>37.26807376784778</v>
       </c>
       <c r="H12">
-        <v>4.797370342393839</v>
+        <v>4.689117025043951</v>
       </c>
       <c r="J12">
-        <v>11.0332685374513</v>
+        <v>9.703625636028731</v>
       </c>
       <c r="K12">
-        <v>15.71552597590757</v>
+        <v>14.3133369244141</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.01342745325442</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.796755687386314</v>
       </c>
       <c r="N12">
-        <v>7.777331238437585</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.1839524545867</v>
+        <v>7.737315936412521</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.51302227510495</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.6772089607903</v>
+        <v>26.67652666365383</v>
       </c>
       <c r="C13">
-        <v>19.03027230159221</v>
+        <v>19.37496087012079</v>
       </c>
       <c r="D13">
-        <v>4.347645610841738</v>
+        <v>4.698700115030188</v>
       </c>
       <c r="E13">
-        <v>8.665329783133396</v>
+        <v>8.492964962490653</v>
       </c>
       <c r="F13">
-        <v>26.00019367047216</v>
+        <v>24.13475972969886</v>
       </c>
       <c r="G13">
-        <v>36.09450695514425</v>
+        <v>35.35042848961326</v>
       </c>
       <c r="H13">
-        <v>5.960167131686271</v>
+        <v>5.88081540899074</v>
       </c>
       <c r="J13">
-        <v>10.6072547112492</v>
+        <v>9.441498384352403</v>
       </c>
       <c r="K13">
-        <v>14.87596680613658</v>
+        <v>13.63831802390848</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.58367178700079</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.192231728780229</v>
       </c>
       <c r="N13">
-        <v>6.93952567502384</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.31911999334786</v>
+        <v>6.893200888233163</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.66189086507126</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.04706016897046</v>
+        <v>26.13556934878224</v>
       </c>
       <c r="C14">
-        <v>19.09135573654054</v>
+        <v>19.42822043545416</v>
       </c>
       <c r="D14">
-        <v>4.444397112351947</v>
+        <v>4.773548624784742</v>
       </c>
       <c r="E14">
-        <v>8.885982290920909</v>
+        <v>8.751800596603866</v>
       </c>
       <c r="F14">
-        <v>25.04651571158952</v>
+        <v>23.37481416947257</v>
       </c>
       <c r="G14">
-        <v>34.44273786803343</v>
+        <v>33.57563966566685</v>
       </c>
       <c r="H14">
-        <v>6.824797865940573</v>
+        <v>6.762868458212355</v>
       </c>
       <c r="J14">
-        <v>10.28276880396543</v>
+        <v>9.38959277888166</v>
       </c>
       <c r="K14">
-        <v>14.28026626788221</v>
+        <v>13.20353754511921</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.3318996349356</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.752139564436073</v>
       </c>
       <c r="N14">
-        <v>6.381235381995459</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.44540171510464</v>
+        <v>6.334878304080008</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.77768649309269</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.80227055732241</v>
+        <v>25.92739679463833</v>
       </c>
       <c r="C15">
-        <v>19.04746848332502</v>
+        <v>19.39292295668023</v>
       </c>
       <c r="D15">
-        <v>4.463564245924271</v>
+        <v>4.780054154553913</v>
       </c>
       <c r="E15">
-        <v>8.944589952697456</v>
+        <v>8.822822389978036</v>
       </c>
       <c r="F15">
-        <v>24.75124562344129</v>
+        <v>23.1624975038873</v>
       </c>
       <c r="G15">
-        <v>33.94342011062581</v>
+        <v>32.95862794550077</v>
       </c>
       <c r="H15">
-        <v>7.020640975827663</v>
+        <v>6.963594416687485</v>
       </c>
       <c r="J15">
-        <v>10.1934199068952</v>
+        <v>9.43319917120496</v>
       </c>
       <c r="K15">
-        <v>14.13336344456436</v>
+        <v>13.11445768926104</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.29097192186701</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.638668931675429</v>
       </c>
       <c r="N15">
-        <v>6.245753967012385</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.4861249764245</v>
+        <v>6.201551602264484</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.80789626661848</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.94862227065252</v>
+        <v>25.20118804788098</v>
       </c>
       <c r="C16">
-        <v>18.46370812495617</v>
+        <v>18.89332360864947</v>
       </c>
       <c r="D16">
-        <v>4.4081375755207</v>
+        <v>4.664647046791782</v>
       </c>
       <c r="E16">
-        <v>8.790060706168839</v>
+        <v>8.695593088142582</v>
       </c>
       <c r="F16">
-        <v>24.20895654892384</v>
+        <v>22.91963666756491</v>
       </c>
       <c r="G16">
-        <v>33.12401103563992</v>
+        <v>31.41893851379516</v>
       </c>
       <c r="H16">
-        <v>6.728821430259507</v>
+        <v>6.683392793502459</v>
       </c>
       <c r="J16">
-        <v>10.11326376257666</v>
+        <v>9.91136018158401</v>
       </c>
       <c r="K16">
-        <v>14.13834435109624</v>
+        <v>13.27440399088266</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.48525173094523</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.587738450395261</v>
       </c>
       <c r="N16">
-        <v>6.196126022367165</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.56446837401448</v>
+        <v>6.172115214957834</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.82170267163364</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63293108367409</v>
+        <v>24.92375666116404</v>
       </c>
       <c r="C17">
-        <v>17.9713482157253</v>
+        <v>18.45299645657519</v>
       </c>
       <c r="D17">
-        <v>4.312780370863923</v>
+        <v>4.541799107283953</v>
       </c>
       <c r="E17">
-        <v>8.526826209999673</v>
+        <v>8.42590750010746</v>
       </c>
       <c r="F17">
-        <v>24.32176277175689</v>
+        <v>23.12527076297279</v>
       </c>
       <c r="G17">
-        <v>33.41567202390851</v>
+        <v>31.33388440122204</v>
       </c>
       <c r="H17">
-        <v>5.992685776956877</v>
+        <v>5.948818822369423</v>
       </c>
       <c r="J17">
-        <v>10.22887730556931</v>
+        <v>10.24511592977761</v>
       </c>
       <c r="K17">
-        <v>14.46179348574034</v>
+        <v>13.61804414401141</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.76959481919955</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.77371186442705</v>
       </c>
       <c r="N17">
-        <v>6.449676182881118</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.55975899718195</v>
+        <v>6.440105539296234</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.78044439363982</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75795567125662</v>
+        <v>25.02877626549403</v>
       </c>
       <c r="C18">
-        <v>17.50971842212885</v>
+        <v>18.04428863174282</v>
       </c>
       <c r="D18">
-        <v>4.179582981985677</v>
+        <v>4.397227447599131</v>
       </c>
       <c r="E18">
-        <v>8.277421668592059</v>
+        <v>8.138691108452958</v>
       </c>
       <c r="F18">
-        <v>25.00504621077849</v>
+        <v>23.77810077547162</v>
       </c>
       <c r="G18">
-        <v>34.68884076170965</v>
+        <v>32.33067728026996</v>
       </c>
       <c r="H18">
-        <v>4.845390697495857</v>
+        <v>4.792873434869243</v>
       </c>
       <c r="J18">
-        <v>10.52158483260674</v>
+        <v>10.5931818913037</v>
       </c>
       <c r="K18">
-        <v>15.09306882746757</v>
+        <v>14.18123832473802</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.18606236098642</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.192696223703177</v>
       </c>
       <c r="N18">
-        <v>7.045490796733102</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.49536599659459</v>
+        <v>7.048167854934226</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.69069755155102</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.2262672994652</v>
+        <v>25.43861539945709</v>
       </c>
       <c r="C19">
-        <v>17.11562530042081</v>
+        <v>17.70868628661114</v>
       </c>
       <c r="D19">
-        <v>4.036827337381328</v>
+        <v>4.250845415137692</v>
       </c>
       <c r="E19">
-        <v>8.279148715535772</v>
+        <v>8.078476613589803</v>
       </c>
       <c r="F19">
-        <v>26.07851682313987</v>
+        <v>24.74461389527025</v>
       </c>
       <c r="G19">
-        <v>36.62468061754051</v>
+        <v>34.02704820303893</v>
       </c>
       <c r="H19">
-        <v>3.648678274882242</v>
+        <v>3.572828594948572</v>
       </c>
       <c r="J19">
-        <v>10.93094116568818</v>
+        <v>10.96837530862463</v>
       </c>
       <c r="K19">
-        <v>15.92805763910201</v>
+        <v>14.89232978440652</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.68978115727714</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.772232717320307</v>
       </c>
       <c r="N19">
-        <v>7.925384061690336</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.40393227502112</v>
+        <v>7.937474333656394</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.5779596124428</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.60761535518686</v>
+        <v>26.6631847295031</v>
       </c>
       <c r="C20">
-        <v>16.94443919238089</v>
+        <v>17.6136952599897</v>
       </c>
       <c r="D20">
-        <v>3.871019470472807</v>
+        <v>4.098986775175117</v>
       </c>
       <c r="E20">
-        <v>8.922851433492001</v>
+        <v>8.617534805509997</v>
       </c>
       <c r="F20">
-        <v>28.15938953552869</v>
+        <v>26.52296292481785</v>
       </c>
       <c r="G20">
-        <v>40.25099401218104</v>
+        <v>37.49546066852186</v>
       </c>
       <c r="H20">
-        <v>2.998900169155207</v>
+        <v>2.867642030205239</v>
       </c>
       <c r="J20">
-        <v>11.64588474057621</v>
+        <v>11.410190788532</v>
       </c>
       <c r="K20">
-        <v>17.29406062379066</v>
+        <v>15.98316362102399</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.38803002627067</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.78830005098992</v>
       </c>
       <c r="N20">
-        <v>9.475603048382707</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.22644260484395</v>
+        <v>9.490158479943895</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.38613096471556</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.39026527054246</v>
+        <v>28.16772012694496</v>
       </c>
       <c r="C21">
-        <v>17.8732268300256</v>
+        <v>18.39398493356498</v>
       </c>
       <c r="D21">
-        <v>3.888279343962533</v>
+        <v>4.214806816433436</v>
       </c>
       <c r="E21">
-        <v>9.254111735289058</v>
+        <v>8.92055692551406</v>
       </c>
       <c r="F21">
-        <v>29.6501382849567</v>
+        <v>27.36069140970965</v>
       </c>
       <c r="G21">
-        <v>42.60701606234863</v>
+        <v>41.23126696629988</v>
       </c>
       <c r="H21">
-        <v>3.356530552220456</v>
+        <v>3.169734053648582</v>
       </c>
       <c r="J21">
-        <v>12.01586367912149</v>
+        <v>10.51118542733036</v>
       </c>
       <c r="K21">
-        <v>17.76637969390515</v>
+        <v>16.04308970016461</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.20481368623878</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.2060733124701</v>
       </c>
       <c r="N21">
-        <v>10.00678129698311</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.99293671002292</v>
+        <v>9.985534129413551</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.23625841979798</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.46835138751981</v>
+        <v>29.06624508510397</v>
       </c>
       <c r="C22">
-        <v>18.47941280025228</v>
+        <v>18.89039376712805</v>
       </c>
       <c r="D22">
-        <v>3.906367076191946</v>
+        <v>4.30259734798738</v>
       </c>
       <c r="E22">
-        <v>9.426673823311894</v>
+        <v>9.082282198300367</v>
       </c>
       <c r="F22">
-        <v>30.53566702853044</v>
+        <v>27.81220051708666</v>
       </c>
       <c r="G22">
-        <v>43.98582056451463</v>
+        <v>43.58385681995401</v>
       </c>
       <c r="H22">
-        <v>3.578020215621809</v>
+        <v>3.355874703341145</v>
       </c>
       <c r="J22">
-        <v>12.23203798019652</v>
+        <v>9.857876121173835</v>
       </c>
       <c r="K22">
-        <v>18.0243960037327</v>
+        <v>16.02450330779929</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.04362717239941</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.43721279015262</v>
       </c>
       <c r="N22">
-        <v>10.27566723066333</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.84562446974744</v>
+        <v>10.23001925135423</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.15219247335031</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.8971772661311</v>
+        <v>28.60837683755257</v>
       </c>
       <c r="C23">
-        <v>18.15794951511023</v>
+        <v>18.65384894805849</v>
       </c>
       <c r="D23">
-        <v>3.896787691026372</v>
+        <v>4.249464272117037</v>
       </c>
       <c r="E23">
-        <v>9.334764075314418</v>
+        <v>8.993451688505722</v>
       </c>
       <c r="F23">
-        <v>30.06393829016093</v>
+        <v>27.62291969738119</v>
       </c>
       <c r="G23">
-        <v>43.25174760671619</v>
+        <v>42.15109254049889</v>
       </c>
       <c r="H23">
-        <v>3.460097962722844</v>
+        <v>3.258238061399434</v>
       </c>
       <c r="J23">
-        <v>12.11628205232582</v>
+        <v>10.3329386876086</v>
       </c>
       <c r="K23">
-        <v>17.88572063434386</v>
+        <v>16.06179331723391</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.14817454412309</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.33618134883319</v>
       </c>
       <c r="N23">
-        <v>10.13289423311191</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>10.92415019330708</v>
+        <v>10.10298898250753</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.19282887537006</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.64062244402324</v>
+        <v>26.69198985696966</v>
       </c>
       <c r="C24">
-        <v>16.89470988144855</v>
+        <v>17.57053287998183</v>
       </c>
       <c r="D24">
-        <v>3.858904549668001</v>
+        <v>4.084697709608879</v>
       </c>
       <c r="E24">
-        <v>8.982283056623874</v>
+        <v>8.671116929768957</v>
       </c>
       <c r="F24">
-        <v>28.25825403639684</v>
+        <v>26.61515220289819</v>
       </c>
       <c r="G24">
-        <v>40.43214685133749</v>
+        <v>37.64337877489947</v>
       </c>
       <c r="H24">
-        <v>3.006815886361828</v>
+        <v>2.875047683945592</v>
       </c>
       <c r="J24">
-        <v>11.68625700078145</v>
+        <v>11.45511284278951</v>
       </c>
       <c r="K24">
-        <v>17.3815220485845</v>
+        <v>16.06046826495648</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.44579878687182</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.8465959324306</v>
       </c>
       <c r="N24">
-        <v>9.576069233356453</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.22383027368924</v>
+        <v>9.591634117244254</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.37922274565298</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.0034937808538</v>
+        <v>24.23059594617227</v>
       </c>
       <c r="C25">
-        <v>15.43286413352164</v>
+        <v>15.99310498698215</v>
       </c>
       <c r="D25">
-        <v>3.814810381450159</v>
+        <v>3.969649511989402</v>
       </c>
       <c r="E25">
-        <v>8.591444629436962</v>
+        <v>8.338839900749459</v>
       </c>
       <c r="F25">
-        <v>26.2745420332173</v>
+        <v>24.92968125978265</v>
       </c>
       <c r="G25">
-        <v>37.31217237095683</v>
+        <v>34.71590199844828</v>
       </c>
       <c r="H25">
-        <v>2.501953362688168</v>
+        <v>2.428777531120859</v>
       </c>
       <c r="J25">
-        <v>11.24067268622468</v>
+        <v>11.20532978452263</v>
       </c>
       <c r="K25">
-        <v>16.88103764765023</v>
+        <v>15.78655226303953</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.56260563557376</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.12997287838542</v>
       </c>
       <c r="N25">
-        <v>8.941810949366895</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.55275928719802</v>
+        <v>8.976477132085455</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.62982618906457</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
